--- a/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>9200</v>
+        <v>10400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -998,9 +998,15 @@
       <c r="M5" s="1">
         <v>93</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="3">
+        <v>45304</v>
+      </c>
+      <c r="O5" s="4">
+        <v>100</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="1">
@@ -1042,9 +1048,15 @@
       <c r="M6" s="1">
         <v>94</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="3">
+        <v>45305</v>
+      </c>
+      <c r="O6" s="4">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1">
@@ -1086,9 +1098,15 @@
       <c r="M7" s="1">
         <v>95</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O7" s="4">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="1">
@@ -1130,9 +1148,15 @@
       <c r="M8" s="1">
         <v>96</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="3">
+        <v>45307</v>
+      </c>
+      <c r="O8" s="4">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="1">
@@ -1174,9 +1198,15 @@
       <c r="M9" s="1">
         <v>97</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="3">
+        <v>45308</v>
+      </c>
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="1">
@@ -1218,9 +1248,15 @@
       <c r="M10" s="1">
         <v>98</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="3">
+        <v>45309</v>
+      </c>
+      <c r="O10" s="4">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="1">
@@ -1262,9 +1298,15 @@
       <c r="M11" s="1">
         <v>99</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="3">
+        <v>45310</v>
+      </c>
+      <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="1">
@@ -1306,9 +1348,15 @@
       <c r="M12" s="1">
         <v>100</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="3">
+        <v>45311</v>
+      </c>
+      <c r="O12" s="4">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="1">
@@ -1350,9 +1398,15 @@
       <c r="M13" s="1">
         <v>101</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="3">
+        <v>45312</v>
+      </c>
+      <c r="O13" s="4">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="1">
@@ -1394,9 +1448,15 @@
       <c r="M14" s="1">
         <v>102</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="3">
+        <v>45313</v>
+      </c>
+      <c r="O14" s="4">
+        <v>100</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="1">
@@ -1438,9 +1498,15 @@
       <c r="M15" s="1">
         <v>103</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="3">
+        <v>45314</v>
+      </c>
+      <c r="O15" s="4">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="1">
@@ -1482,9 +1548,15 @@
       <c r="M16" s="1">
         <v>104</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="3">
+        <v>45315</v>
+      </c>
+      <c r="O16" s="4">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1">
       <c r="A17" s="1">

--- a/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9:P16"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1598,9 +1598,15 @@
       <c r="M17" s="1">
         <v>105</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="1"/>
+      <c r="N17" s="3">
+        <v>45316</v>
+      </c>
+      <c r="O17" s="4">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1">
       <c r="A18" s="1">
@@ -1642,9 +1648,15 @@
       <c r="M18" s="1">
         <v>106</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="1"/>
+      <c r="N18" s="3">
+        <v>45317</v>
+      </c>
+      <c r="O18" s="4">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1">
       <c r="A19" s="1">
@@ -1686,9 +1698,15 @@
       <c r="M19" s="1">
         <v>107</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="1"/>
+      <c r="N19" s="3">
+        <v>45318</v>
+      </c>
+      <c r="O19" s="4">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1">
       <c r="A20" s="1">
@@ -1730,9 +1748,15 @@
       <c r="M20" s="1">
         <v>108</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="3">
+        <v>45319</v>
+      </c>
+      <c r="O20" s="4">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1">
       <c r="A21" s="1">
@@ -1774,9 +1798,15 @@
       <c r="M21" s="1">
         <v>109</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="3">
+        <v>45320</v>
+      </c>
+      <c r="O21" s="4">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1">
       <c r="A22" s="1">

--- a/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/3 Loanee-Priyadarshini.xlsx
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20:P21"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1848,9 +1848,15 @@
       <c r="M22" s="1">
         <v>110</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="1"/>
+      <c r="N22" s="3">
+        <v>45321</v>
+      </c>
+      <c r="O22" s="4">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1">
       <c r="A23" s="1">
@@ -1892,9 +1898,15 @@
       <c r="M23" s="1">
         <v>111</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="3">
+        <v>45322</v>
+      </c>
+      <c r="O23" s="4">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1">
       <c r="A24" s="1">
@@ -1936,9 +1948,15 @@
       <c r="M24" s="1">
         <v>112</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="1"/>
+      <c r="N24" s="3">
+        <v>45323</v>
+      </c>
+      <c r="O24" s="4">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1">
       <c r="A25" s="1">
@@ -1980,9 +1998,15 @@
       <c r="M25" s="1">
         <v>113</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="1"/>
+      <c r="N25" s="3">
+        <v>45324</v>
+      </c>
+      <c r="O25" s="4">
+        <v>100</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1">
       <c r="A26" s="1">
